--- a/scrap.xlsx
+++ b/scrap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\karir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35BA050-A187-4942-8F3A-C5F4C6CAA295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930E5B1F-826D-436C-8962-AA93E9B3AAB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="471">
   <si>
     <t>Title_URL</t>
   </si>
@@ -1427,6 +1427,12 @@
   </si>
   <si>
     <t>perusahaan</t>
+  </si>
+  <si>
+    <t>firstech</t>
+  </si>
+  <si>
+    <t>dansmulti</t>
   </si>
 </sst>
 </file>
@@ -1450,12 +1456,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1470,9 +1482,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1814,14 +1827,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.625" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="45.75" customWidth="1"/>
     <col min="3" max="3" width="61.875" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="56.875" customWidth="1"/>
@@ -1874,114 +1887,126 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
